--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BACKUP\CURSOS\CURSOS\MISION TIC\UDEA\7. Fundamentos de programacion 3\Practica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUANHG\Documents\GitHub\Manufacturing-company\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1282,10 +1282,10 @@
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1434,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12">
-        <f t="shared" ref="J6" si="1">H6-I6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="13"/>
@@ -1455,7 +1455,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12">
-        <f t="shared" ref="J7" si="2">H7-I7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="13"/>
@@ -1656,7 +1656,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12">
-        <f t="shared" ref="J16:J21" si="3">H16-I16</f>
+        <f t="shared" ref="J16:J21" si="1">H16-I16</f>
         <v>0</v>
       </c>
       <c r="K16" s="13"/>
@@ -1681,7 +1681,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="13"/>
@@ -1702,7 +1702,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="13"/>
@@ -1727,7 +1727,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="13"/>
@@ -1748,7 +1748,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="13"/>
@@ -1769,7 +1769,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="13"/>
@@ -1815,7 +1815,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12">
-        <f t="shared" ref="J23:J31" si="4">H23-I23</f>
+        <f t="shared" ref="J23:J31" si="2">H23-I23</f>
         <v>0</v>
       </c>
       <c r="K23" s="13"/>
@@ -1836,7 +1836,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24" s="13"/>
@@ -1861,7 +1861,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="13"/>
@@ -1882,7 +1882,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" s="13"/>
@@ -1903,7 +1903,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27" s="13"/>
@@ -1924,7 +1924,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28" s="13"/>
@@ -1949,7 +1949,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="13"/>
@@ -1970,7 +1970,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="13"/>
@@ -1991,7 +1991,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="13"/>
@@ -2037,7 +2037,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12">
-        <f t="shared" ref="J33:J44" si="5">H33-I33</f>
+        <f t="shared" ref="J33:J44" si="3">H33-I33</f>
         <v>0</v>
       </c>
       <c r="K33" s="13"/>
@@ -2058,7 +2058,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K34" s="13"/>
@@ -2083,7 +2083,7 @@
       <c r="H35" s="11"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K35" s="13"/>
@@ -2104,7 +2104,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K36" s="13"/>
@@ -2125,7 +2125,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K37" s="13"/>
@@ -2150,7 +2150,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K38" s="13"/>
@@ -2171,7 +2171,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K39" s="13"/>
@@ -2192,7 +2192,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K40" s="13"/>
@@ -2217,7 +2217,7 @@
       <c r="H41" s="11"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K41" s="13"/>
@@ -2238,7 +2238,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K42" s="13"/>
@@ -2259,7 +2259,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K43" s="13"/>
@@ -2280,7 +2280,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K44" s="13"/>
@@ -2326,7 +2326,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12">
-        <f t="shared" ref="J46:J57" si="6">H46-I46</f>
+        <f t="shared" ref="J46:J57" si="4">H46-I46</f>
         <v>0</v>
       </c>
       <c r="K46" s="13"/>
@@ -2347,7 +2347,7 @@
       <c r="H47" s="11"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K47" s="13"/>
@@ -2368,7 +2368,7 @@
       <c r="H48" s="11"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K48" s="13"/>
@@ -2393,7 +2393,7 @@
       <c r="H49" s="11"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K49" s="13"/>
@@ -2414,7 +2414,7 @@
       <c r="H50" s="11"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K50" s="13"/>
@@ -2435,7 +2435,7 @@
       <c r="H51" s="11"/>
       <c r="I51" s="12"/>
       <c r="J51" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K51" s="13"/>
@@ -2456,7 +2456,7 @@
       <c r="H52" s="11"/>
       <c r="I52" s="12"/>
       <c r="J52" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K52" s="13"/>
@@ -2481,7 +2481,7 @@
       <c r="H53" s="11"/>
       <c r="I53" s="12"/>
       <c r="J53" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K53" s="13"/>
@@ -2502,7 +2502,7 @@
       <c r="H54" s="11"/>
       <c r="I54" s="12"/>
       <c r="J54" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K54" s="13"/>
@@ -2523,7 +2523,7 @@
       <c r="H55" s="11"/>
       <c r="I55" s="12"/>
       <c r="J55" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K55" s="13"/>
@@ -2544,7 +2544,7 @@
       <c r="H56" s="11"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12">
-        <f t="shared" ref="J56" si="7">H56-I56</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K56" s="13"/>
@@ -2565,13 +2565,39 @@
       <c r="H57" s="11"/>
       <c r="I57" s="12"/>
       <c r="J57" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K57" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="B53:B57"/>
     <mergeCell ref="C53:C57"/>
     <mergeCell ref="B41:B44"/>
@@ -2580,32 +2606,6 @@
     <mergeCell ref="C45:C48"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="C49:C52"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
@@ -2614,7 +2614,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Hoja1!$A$1:$A$4</xm:f>
+            <xm:f>[1]Hoja1!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G57</xm:sqref>
         </x14:dataValidation>
@@ -2883,20 +2883,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <fzeo xmlns="b6575a5c-41d4-4827-af7c-5bbfdaac6a7a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <fzeo xmlns="b6575a5c-41d4-4827-af7c-5bbfdaac6a7a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2919,14 +2919,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45F25D97-61E2-4AAC-98DB-366FD983A9FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD8416F-A158-4651-9239-61D40148421A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -2941,4 +2933,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45F25D97-61E2-4AAC-98DB-366FD983A9FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BACKUP\CURSOS\CURSOS\MISION TIC\UDEA\7. Fundamentos de programacion 3\Practica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUANHG\Documents\GitHub\Manufacturing-company\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="180">
   <si>
     <t>Columna</t>
   </si>
@@ -34,24 +34,9 @@
     <t>Instrucciones</t>
   </si>
   <si>
-    <t>Como un [Rol], necesito [descripción de la funcionalidad], con la finalidad de [Razón o Resultado]</t>
-  </si>
-  <si>
     <t>Tarea</t>
   </si>
   <si>
-    <t>[Enunciado de tarea 1]</t>
-  </si>
-  <si>
-    <t>[Enunciado de tarea 2]</t>
-  </si>
-  <si>
-    <t>[Enunciado de tarea 3]</t>
-  </si>
-  <si>
-    <t>[Enunciado de tarea 4]</t>
-  </si>
-  <si>
     <t>Horas estimadas totales</t>
   </si>
   <si>
@@ -241,9 +226,6 @@
     <t>HU3.3</t>
   </si>
   <si>
-    <t>HU3.4</t>
-  </si>
-  <si>
     <t>Crear entregables</t>
   </si>
   <si>
@@ -272,6 +254,319 @@
   </si>
   <si>
     <t>Retrospectiva del proyecto</t>
+  </si>
+  <si>
+    <t>Juan Alberto Hernandez</t>
+  </si>
+  <si>
+    <t>María José Jadnat</t>
+  </si>
+  <si>
+    <t>HU6</t>
+  </si>
+  <si>
+    <t>Como Analista y arquitecto, necesito crear un entorno de trabajo en trello, con la finalidad que el desarrollo se ajusten a los estandares de codificacionde y ver la ejecucion de actividades del proyecto</t>
+  </si>
+  <si>
+    <t>HU6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear una cuenta para FATNAG </t>
+  </si>
+  <si>
+    <t>HU6.2</t>
+  </si>
+  <si>
+    <t>Soporte tecnico para vincular las cuentas de los miembros del equipo</t>
+  </si>
+  <si>
+    <t>HU6.3</t>
+  </si>
+  <si>
+    <t>Comunicar directrices, metodologia, reglas de trabajo y definir botones</t>
+  </si>
+  <si>
+    <t>HU7</t>
+  </si>
+  <si>
+    <t>Como un desarrollador, necesito diponer de un Backlog con los requerimientos y los objetivos del proyecto, con la finalidad de dividir y organizar el trabajo</t>
+  </si>
+  <si>
+    <t>HU7.1</t>
+  </si>
+  <si>
+    <t>Definir la informacion y requerimientos  para el equipo</t>
+  </si>
+  <si>
+    <t>Omaira Dayana Velásquez</t>
+  </si>
+  <si>
+    <t>HU7.2</t>
+  </si>
+  <si>
+    <t>Definir los entregables de cada Sprint</t>
+  </si>
+  <si>
+    <t>HU7.3</t>
+  </si>
+  <si>
+    <t>Colocar en cada lista las historias de usuario asignadas</t>
+  </si>
+  <si>
+    <t>HU8</t>
+  </si>
+  <si>
+    <t>Como un equipo Scrum, necesito crear y organizar unos tableros, con la finalidad de poder ver de manera visual el estado de las actividades</t>
+  </si>
+  <si>
+    <t>HU8.1</t>
+  </si>
+  <si>
+    <t>Crear lista backlog general y de sprint</t>
+  </si>
+  <si>
+    <t>HU8.2</t>
+  </si>
+  <si>
+    <t>Crear lista to-do, progress, done y daily</t>
+  </si>
+  <si>
+    <t>HU8.3</t>
+  </si>
+  <si>
+    <t>Documentar historias de Usuario</t>
+  </si>
+  <si>
+    <t>HU8.4</t>
+  </si>
+  <si>
+    <t>Usar Checklist para tareas</t>
+  </si>
+  <si>
+    <t>HU9</t>
+  </si>
+  <si>
+    <t>Como un Product Owner, necesito implementar reglas para control y seguimiento, con la finalidad de cumplir en tiempo y con la calidad requerida del producto de software</t>
+  </si>
+  <si>
+    <t>HU9.1</t>
+  </si>
+  <si>
+    <t>Definir fechas y asignar responsable</t>
+  </si>
+  <si>
+    <t>HU9.2</t>
+  </si>
+  <si>
+    <t>Definir reglas para completar los items cheklist</t>
+  </si>
+  <si>
+    <t>HU9.3</t>
+  </si>
+  <si>
+    <t>Validar producto y dar cierre de historias de usuario</t>
+  </si>
+  <si>
+    <t>HU10</t>
+  </si>
+  <si>
+    <t>Como un product owner, necesito crear un repositorio en la nube GitHub, con la finalidad de llevar un control adecuado de cambios y versiones del producto</t>
+  </si>
+  <si>
+    <t>HU10.1</t>
+  </si>
+  <si>
+    <t>HU10.2</t>
+  </si>
+  <si>
+    <t>Definir reglas de cambios y versionamiento</t>
+  </si>
+  <si>
+    <t>HU10.3</t>
+  </si>
+  <si>
+    <t>Definir reglas de programacion y comentarios</t>
+  </si>
+  <si>
+    <t>HU11</t>
+  </si>
+  <si>
+    <t>Yo como desarrollador, debo disponer accesos, información, fuentes, para que el acceso a la creación de la app sea mas eficiente</t>
+  </si>
+  <si>
+    <t>HU11.1</t>
+  </si>
+  <si>
+    <t>Mostrar a los integrantes del grupo,  link de la organización del GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Felipe Ramirez Ferrín </t>
+  </si>
+  <si>
+    <t>HU11.2</t>
+  </si>
+  <si>
+    <t>Tener claras definiciones de los lenguajes a utilizar</t>
+  </si>
+  <si>
+    <t>HU11.3</t>
+  </si>
+  <si>
+    <t>poner en disposición del grupo las herramientas a descargar</t>
+  </si>
+  <si>
+    <t>HU12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yo como desarrollador debo comunicarme con las cuentas analista/arquitecto y demas desarrolladores para bocetar las funcionalidades ideadas del software.
+</t>
+  </si>
+  <si>
+    <t>H12.1</t>
+  </si>
+  <si>
+    <t>determinar futuros sprints</t>
+  </si>
+  <si>
+    <t>H12.2</t>
+  </si>
+  <si>
+    <t>aclarar dudas de tiempo y reuniones.</t>
+  </si>
+  <si>
+    <t>H12.3</t>
+  </si>
+  <si>
+    <t>seguimiento a la estructura de la app por parte del arquitecto.</t>
+  </si>
+  <si>
+    <t>HU13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yo como desarrollador, debo estructurar ramas y organizar el flujo de git, para poder subir las actividades a está plataforma. </t>
+  </si>
+  <si>
+    <t>H13.1</t>
+  </si>
+  <si>
+    <t>crear repositorio FATNAG.github.io para implementar la creación de la pagina</t>
+  </si>
+  <si>
+    <t>H13.2</t>
+  </si>
+  <si>
+    <t>Añadir descripción en Readme  a cada una de las 3 ramas de manufacturing</t>
+  </si>
+  <si>
+    <t>H13.3</t>
+  </si>
+  <si>
+    <t>añadir rama de Class assigment para subir las tareas de clase</t>
+  </si>
+  <si>
+    <t>H13.4</t>
+  </si>
+  <si>
+    <t>añadir repositorio Manufacturing company para guardar el proyecto</t>
+  </si>
+  <si>
+    <t>HU14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">como desarrollador debo realizar control y seguimiento al sprint planning para la realización eficaz  de los dailys. </t>
+  </si>
+  <si>
+    <t>H14.1</t>
+  </si>
+  <si>
+    <t>hacer las reuniones  daily scrum, validar los commit</t>
+  </si>
+  <si>
+    <t>H14.2</t>
+  </si>
+  <si>
+    <t>analizar y planear como mejorará la calidad y efectividad del trabajo realizado durante el sprint</t>
+  </si>
+  <si>
+    <t>H14.3</t>
+  </si>
+  <si>
+    <t>inspeccionar el resultado del sprint</t>
+  </si>
+  <si>
+    <t>H14.4</t>
+  </si>
+  <si>
+    <t>Organizar mi cronograma</t>
+  </si>
+  <si>
+    <t>HU15</t>
+  </si>
+  <si>
+    <t>Como desarrollador, requiero instalar git y enlazarlo con mi cuenta de github, para poder comunicarme con los repositorios de FATNAG.</t>
+  </si>
+  <si>
+    <t>H15.1</t>
+  </si>
+  <si>
+    <t>Instalar git (https://git-scm.com/downloads)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jofay Zhan Segura  </t>
+  </si>
+  <si>
+    <t>H15.2</t>
+  </si>
+  <si>
+    <t>Crear cuenta de github (https://github.com)</t>
+  </si>
+  <si>
+    <t>H15.3</t>
+  </si>
+  <si>
+    <t>Usar los comandos git config user.name y git config user.email para enlazar mi git con mi github.</t>
+  </si>
+  <si>
+    <t>H15.4</t>
+  </si>
+  <si>
+    <t>Verificar con los comandos anteriores si el usuario y email son los correctos</t>
+  </si>
+  <si>
+    <t>HU16</t>
+  </si>
+  <si>
+    <t>Como desarrollador, debo registrar y documentar cada cambio que suba al repositorio en Github, para que quede constancia de nuestro proceso.</t>
+  </si>
+  <si>
+    <t>H16.1</t>
+  </si>
+  <si>
+    <t>Subir cada cambio importante o funcional</t>
+  </si>
+  <si>
+    <t>H16.2</t>
+  </si>
+  <si>
+    <t>A la hora de subirlo escribir un commit corto pero conciso.</t>
+  </si>
+  <si>
+    <t>H16.3</t>
+  </si>
+  <si>
+    <t>Subirlo a la rama development para no llenar la rama release o master de programas innecesarios.</t>
+  </si>
+  <si>
+    <t>H16.4</t>
+  </si>
+  <si>
+    <t>Crear carpeta de pruebas en el repositorio</t>
+  </si>
+  <si>
+    <t>H16.5</t>
+  </si>
+  <si>
+    <t>En la carpeta pruebas cada uno de los integrantes hacer un commit</t>
   </si>
 </sst>
 </file>
@@ -486,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -521,6 +816,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,14 +833,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -544,11 +845,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,7 +1187,7 @@
         <v>Identificador (ID) de item de  backlog de producto</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30" x14ac:dyDescent="0.25">
@@ -892,79 +1196,79 @@
         <v>Enunciado del item del Backlog de producto</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -975,13 +1279,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18:C19"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,8 +1293,8 @@
     <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1002,65 +1306,67 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="22"/>
+      <c r="B1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="24"/>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="I2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>51</v>
+      <c r="C3" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="12"/>
@@ -1071,34 +1377,38 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="19"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12">
-        <f t="shared" ref="J4:J15" si="0">H4-I4</f>
+        <f t="shared" ref="J4:J14" si="0">H4-I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="19"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
@@ -1109,53 +1419,59 @@
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12">
-        <f t="shared" ref="J6" si="1">H6-I6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="19"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12">
-        <f t="shared" ref="J7" si="2">H7-I7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="20"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
@@ -1165,20 +1481,22 @@
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="15" t="s">
+    <row r="9" spans="1:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
@@ -1189,15 +1507,17 @@
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="19"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
@@ -1208,15 +1528,17 @@
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
@@ -1226,20 +1548,22 @@
       </c>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>67</v>
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
@@ -1250,15 +1574,17 @@
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
@@ -1269,15 +1595,17 @@
       <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
@@ -1288,626 +1616,996 @@
       <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="D15" s="10" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12">
-        <f t="shared" si="0"/>
+        <f>H15-I15</f>
         <v>0</v>
       </c>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="16"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12">
-        <f>H16-I16</f>
+        <f t="shared" ref="J16:J21" si="1">H16-I16</f>
         <v>0</v>
       </c>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="2:11" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
-      <c r="C17" s="16"/>
+    <row r="17" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="D17" s="10" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12">
-        <f t="shared" ref="J17:J23" si="3">H17-I17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="2:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="F18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="2:11" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="19"/>
-      <c r="C19" s="16"/>
+    <row r="19" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="D19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="2:11" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="C20" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="11"/>
+    <row r="20" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="E20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="11"/>
+    <row r="21" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="25"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="11"/>
+    <row r="22" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="E22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12">
-        <f t="shared" si="3"/>
+        <f>H22-I22</f>
         <v>0</v>
       </c>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="11"/>
+    <row r="23" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="16"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="E23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J23:J31" si="2">H23-I23</f>
         <v>0</v>
       </c>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="2:11" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
-      <c r="C24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="10"/>
+    <row r="24" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="25"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="E24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12">
-        <f>H24-I24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24" s="13"/>
     </row>
-    <row r="25" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="10"/>
+    <row r="25" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="E25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12">
-        <f t="shared" ref="J25:J35" si="4">H25-I25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="13"/>
     </row>
-    <row r="26" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="10"/>
+    <row r="26" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="16"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="E26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" s="13"/>
     </row>
-    <row r="27" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="10"/>
+    <row r="27" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="25"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="E27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27" s="13"/>
     </row>
-    <row r="28" spans="2:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="18"/>
-      <c r="C28" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="11"/>
+    <row r="28" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="26"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="E28" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28" s="13"/>
     </row>
-    <row r="29" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="19"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="11"/>
+    <row r="29" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="E29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="11"/>
+        <v>108</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="13"/>
     </row>
-    <row r="30" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="19"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="11"/>
+    <row r="30" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="16"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="E30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="13"/>
     </row>
-    <row r="31" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="20"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="11"/>
+    <row r="31" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B31" s="25"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="E31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="11"/>
+        <v>112</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="13"/>
     </row>
-    <row r="32" spans="2:11" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="18"/>
-      <c r="C32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="11"/>
+    <row r="32" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B32" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="E32" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12">
-        <f t="shared" si="4"/>
+        <f>H32-I32</f>
         <v>0</v>
       </c>
       <c r="K32" s="13"/>
     </row>
-    <row r="33" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="19"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="11"/>
+    <row r="33" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="16"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="E33" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J33:J44" si="3">H33-I33</f>
         <v>0</v>
       </c>
       <c r="K33" s="13"/>
     </row>
-    <row r="34" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B34" s="19"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="11"/>
+    <row r="34" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B34" s="25"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="E34" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="11"/>
+        <v>119</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K34" s="13"/>
     </row>
-    <row r="35" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="20"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="11"/>
+    <row r="35" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="E35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="2:11" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="18"/>
-      <c r="C36" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="10"/>
+    <row r="36" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="16"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="E36" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="11"/>
+        <v>126</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12">
-        <f>H36-I36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K36" s="13"/>
     </row>
-    <row r="37" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B37" s="19"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="10"/>
+    <row r="37" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="25"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="E37" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="11"/>
+        <v>128</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12">
-        <f t="shared" ref="J37:J47" si="5">H37-I37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K37" s="13"/>
     </row>
-    <row r="38" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="19"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="10"/>
+    <row r="38" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="E38" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="11"/>
+        <v>132</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K38" s="13"/>
     </row>
-    <row r="39" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B39" s="20"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="10"/>
+    <row r="39" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="16"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="E39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="2:11" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="18"/>
-      <c r="C40" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="11"/>
+    <row r="40" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B40" s="25"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="E40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="11"/>
+        <v>136</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K40" s="13"/>
     </row>
-    <row r="41" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="19"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="11"/>
+    <row r="41" spans="2:11" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B41" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="E41" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K41" s="13"/>
     </row>
-    <row r="42" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="19"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="11"/>
+    <row r="42" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B42" s="16"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="E42" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="11"/>
+        <v>142</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K42" s="13"/>
     </row>
-    <row r="43" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B43" s="20"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="11"/>
+    <row r="43" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B43" s="25"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="E43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="11"/>
+        <v>144</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K43" s="13"/>
     </row>
-    <row r="44" spans="2:11" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="18"/>
-      <c r="C44" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="11"/>
+    <row r="44" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B44" s="26"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="E44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="11"/>
+        <v>146</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K44" s="13"/>
     </row>
-    <row r="45" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B45" s="19"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="11"/>
+    <row r="45" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="E45" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="11"/>
+        <v>150</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12">
-        <f t="shared" si="5"/>
+        <f>H45-I45</f>
         <v>0</v>
       </c>
       <c r="K45" s="13"/>
     </row>
-    <row r="46" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B46" s="19"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="11"/>
+    <row r="46" spans="2:11" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B46" s="16"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="E46" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="11"/>
+        <v>152</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J46:J57" si="4">H46-I46</f>
         <v>0</v>
       </c>
       <c r="K46" s="13"/>
     </row>
-    <row r="47" spans="2:11" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B47" s="20"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="11"/>
+    <row r="47" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B47" s="25"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="E47" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="11"/>
+        <v>154</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K47" s="13"/>
     </row>
+    <row r="48" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B48" s="26"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B49" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B50" s="16"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="2:11" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B51" s="25"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="13"/>
+    </row>
+    <row r="52" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B52" s="26"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B54" s="16"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="13"/>
+    </row>
+    <row r="55" spans="2:11" s="14" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B55" s="25"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="13"/>
+    </row>
+    <row r="56" spans="2:11" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B56" s="25"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="13"/>
+    </row>
+    <row r="57" spans="2:11" s="14" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B57" s="26"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
+  <mergeCells count="34">
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="C45:C48"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
@@ -1916,9 +2614,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Hoja1!$A$1:$A$4</xm:f>
+            <xm:f>[1]Hoja1!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G48</xm:sqref>
+          <xm:sqref>G3:G57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1938,22 +2636,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1962,23 +2660,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <fzeo xmlns="b6575a5c-41d4-4827-af7c-5bbfdaac6a7a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007812EE028DBF6944B13FC829046072A6" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fcbc98ebc8517d5383156cbd6a36909d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b6575a5c-41d4-4827-af7c-5bbfdaac6a7a" xmlns:ns3="951eece0-81d4-48c4-be6a-278f98ee9e70" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b8bd08b41a4bcd2894188b018b974e7" ns2:_="" ns3:_="">
     <xsd:import namespace="b6575a5c-41d4-4827-af7c-5bbfdaac6a7a"/>
@@ -2201,32 +2882,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD8416F-A158-4651-9239-61D40148421A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="951eece0-81d4-48c4-be6a-278f98ee9e70"/>
-    <ds:schemaRef ds:uri="b6575a5c-41d4-4827-af7c-5bbfdaac6a7a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45F25D97-61E2-4AAC-98DB-366FD983A9FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <fzeo xmlns="b6575a5c-41d4-4827-af7c-5bbfdaac6a7a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{750401DB-D051-4580-B7CD-4E837314A28A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2243,4 +2916,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45F25D97-61E2-4AAC-98DB-366FD983A9FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD8416F-A158-4651-9239-61D40148421A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="951eece0-81d4-48c4-be6a-278f98ee9e70"/>
+    <ds:schemaRef ds:uri="b6575a5c-41d4-4827-af7c-5bbfdaac6a7a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>